--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2570217.944719826</v>
+        <v>2563238.727297348</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2229795.431210937</v>
+        <v>2289950.192586967</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.093379124</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>135.2450867766929</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>304.1349105176402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>54.36146403923025</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>159.4192155007339</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>82.97450771057973</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>215.2436585696447</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>281.816380567042</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>357.5523514471056</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>131.6676372898902</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,10 +1035,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>117.7725637987111</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.60309626129947</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>179.4080122938798</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>139.8276830753324</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>45.4593017177969</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>87.95308749070819</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.8403799995838</v>
+        <v>329.8403799995837</v>
       </c>
       <c r="C11" t="n">
-        <v>322.5943282273996</v>
+        <v>322.5943282273995</v>
       </c>
       <c r="D11" t="n">
-        <v>314.9372992407998</v>
+        <v>314.9372992407997</v>
       </c>
       <c r="E11" t="n">
-        <v>331.9082713799218</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>346.0760758306229</v>
+        <v>346.0760758306228</v>
       </c>
       <c r="G11" t="n">
         <v>342.3817097021777</v>
       </c>
       <c r="H11" t="n">
-        <v>254.1928016744751</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>70.30432748376064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.19900125366077</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>103.9676460641713</v>
       </c>
       <c r="U11" t="n">
-        <v>173.5553121889401</v>
+        <v>186.5457840150482</v>
       </c>
       <c r="V11" t="n">
-        <v>272.0363229488177</v>
+        <v>272.0363229488176</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>300.6396264266962</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>325.8763837339058</v>
+        <v>325.8763837339057</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4.963904543207732</v>
       </c>
       <c r="C13" t="n">
-        <v>101.8536484999715</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.42736371181127</v>
+        <v>87.42736371181122</v>
       </c>
       <c r="E13" t="n">
-        <v>47.85388498987365</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>89.1032571844576</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>99.92209510684974</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>87.27434727342178</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>65.11406285459371</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.01256121904967</v>
+        <v>56.01256121904963</v>
       </c>
       <c r="S13" t="n">
-        <v>134.138504724577</v>
+        <v>134.1385047245769</v>
       </c>
       <c r="T13" t="n">
-        <v>166.7124430587491</v>
+        <v>166.712443058749</v>
       </c>
       <c r="U13" t="n">
         <v>215.9349855858189</v>
       </c>
       <c r="V13" t="n">
-        <v>196.6701334726849</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>213.847679793435</v>
       </c>
       <c r="X13" t="n">
-        <v>165.0901007401476</v>
+        <v>165.0901007401475</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1613,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>10.76124383727391</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>50.71219538417029</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.1114851537506</v>
+        <v>282.6680226811114</v>
       </c>
       <c r="C32" t="n">
-        <v>281.8654333815664</v>
+        <v>275.4219709089272</v>
       </c>
       <c r="D32" t="n">
-        <v>274.2084043949666</v>
+        <v>267.7649419223275</v>
       </c>
       <c r="E32" t="n">
-        <v>291.1793765340886</v>
+        <v>284.7359140614494</v>
       </c>
       <c r="F32" t="n">
-        <v>305.3471809847897</v>
+        <v>298.9037185121505</v>
       </c>
       <c r="G32" t="n">
-        <v>301.6528148563445</v>
+        <v>295.2093523837054</v>
       </c>
       <c r="H32" t="n">
-        <v>213.4639068286419</v>
+        <v>207.0204443560028</v>
       </c>
       <c r="I32" t="n">
-        <v>29.57543263792751</v>
+        <v>23.13197016528837</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.47010640782763</v>
+        <v>51.02664393518849</v>
       </c>
       <c r="T32" t="n">
-        <v>113.8872833156452</v>
+        <v>107.443820843006</v>
       </c>
       <c r="U32" t="n">
-        <v>145.8168891692151</v>
+        <v>139.3734266965759</v>
       </c>
       <c r="V32" t="n">
-        <v>231.3074281029845</v>
+        <v>224.8639656303453</v>
       </c>
       <c r="W32" t="n">
-        <v>259.9107315808631</v>
+        <v>253.4672691082239</v>
       </c>
       <c r="X32" t="n">
-        <v>278.1797659157414</v>
+        <v>271.7363034431023</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.1474888880726</v>
+        <v>278.7040264154334</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.97762540385595</v>
+        <v>69.53416293121681</v>
       </c>
       <c r="C34" t="n">
-        <v>61.12475365413836</v>
+        <v>54.68129118149922</v>
       </c>
       <c r="D34" t="n">
-        <v>46.69846886597809</v>
+        <v>40.25500639333895</v>
       </c>
       <c r="E34" t="n">
-        <v>46.6249109188572</v>
+        <v>40.18144844621806</v>
       </c>
       <c r="F34" t="n">
-        <v>48.37436233862446</v>
+        <v>41.93089986598532</v>
       </c>
       <c r="G34" t="n">
-        <v>59.1932002610166</v>
+        <v>52.74973778837746</v>
       </c>
       <c r="H34" t="n">
-        <v>46.54545242758864</v>
+        <v>40.1019899549495</v>
       </c>
       <c r="I34" t="n">
-        <v>24.38516800876057</v>
+        <v>17.94170553612143</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.28366637321649</v>
+        <v>8.84020390057735</v>
       </c>
       <c r="S34" t="n">
-        <v>93.40960987874381</v>
+        <v>86.96614740610467</v>
       </c>
       <c r="T34" t="n">
-        <v>125.9835482129159</v>
+        <v>119.5400857402768</v>
       </c>
       <c r="U34" t="n">
-        <v>175.2060907399858</v>
+        <v>168.7626282673466</v>
       </c>
       <c r="V34" t="n">
-        <v>155.9412386268517</v>
+        <v>149.4977761542125</v>
       </c>
       <c r="W34" t="n">
-        <v>173.1187849476019</v>
+        <v>166.6753224749627</v>
       </c>
       <c r="X34" t="n">
-        <v>124.3612058943144</v>
+        <v>117.9177434216753</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.5026274709908</v>
+        <v>107.0591649983516</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>309.7073809893549</v>
       </c>
       <c r="G44" t="n">
-        <v>306.0130148609098</v>
+        <v>209.4752174547433</v>
       </c>
       <c r="H44" t="n">
-        <v>217.8241068332072</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>33.93563264249275</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>61.83030641239287</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>118.2474833202104</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>150.1770891737803</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>235.6676281075497</v>
       </c>
       <c r="W44" t="n">
         <v>264.2709315854283</v>
       </c>
       <c r="X44" t="n">
-        <v>258.2568399073767</v>
+        <v>282.5399659203067</v>
       </c>
       <c r="Y44" t="n">
         <v>289.5076888926378</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.3378254084212</v>
+        <v>80.33782540842118</v>
       </c>
       <c r="C46" t="n">
-        <v>65.4849536587036</v>
+        <v>65.48495365870359</v>
       </c>
       <c r="D46" t="n">
-        <v>51.05866887054333</v>
+        <v>51.05866887054331</v>
       </c>
       <c r="E46" t="n">
-        <v>50.98511092342244</v>
+        <v>50.98511092342243</v>
       </c>
       <c r="F46" t="n">
-        <v>52.73456234318971</v>
+        <v>52.73456234318969</v>
       </c>
       <c r="G46" t="n">
-        <v>63.55340026558184</v>
+        <v>63.55340026558183</v>
       </c>
       <c r="H46" t="n">
-        <v>50.90565243215389</v>
+        <v>50.90565243215387</v>
       </c>
       <c r="I46" t="n">
-        <v>28.74536801332582</v>
+        <v>28.7453680133258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.64386637778173</v>
+        <v>19.64386637778172</v>
       </c>
       <c r="S46" t="n">
-        <v>97.76980988330905</v>
+        <v>97.76980988330904</v>
       </c>
       <c r="T46" t="n">
         <v>130.3437482174811</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.14988827665195</v>
+        <v>662.1888417436162</v>
       </c>
       <c r="C2" t="n">
-        <v>65.14988827665195</v>
+        <v>662.1888417436162</v>
       </c>
       <c r="D2" t="n">
-        <v>65.14988827665195</v>
+        <v>662.1888417436162</v>
       </c>
       <c r="E2" t="n">
-        <v>65.14988827665195</v>
+        <v>525.57764297928</v>
       </c>
       <c r="F2" t="n">
-        <v>52.29585384703378</v>
+        <v>512.7236085496618</v>
       </c>
       <c r="G2" t="n">
-        <v>43.173502375441</v>
+        <v>503.601257078069</v>
       </c>
       <c r="H2" t="n">
-        <v>43.173502375441</v>
+        <v>179.5182066445596</v>
       </c>
       <c r="I2" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J2" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K2" t="n">
-        <v>43.173502375441</v>
+        <v>400.1634457644863</v>
       </c>
       <c r="L2" t="n">
-        <v>536.4937940939699</v>
+        <v>893.4837374830151</v>
       </c>
       <c r="M2" t="n">
-        <v>1070.765885990052</v>
+        <v>893.4837374830151</v>
       </c>
       <c r="N2" t="n">
-        <v>1598.577169627514</v>
+        <v>1403.099722978693</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.616770519843</v>
+        <v>1843.139323871021</v>
       </c>
       <c r="P2" t="n">
-        <v>2158.67511877205</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="Q2" t="n">
-        <v>2158.67511877205</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R2" t="n">
-        <v>2120.682205057572</v>
+        <v>2021.061573136744</v>
       </c>
       <c r="S2" t="n">
-        <v>1954.168649998623</v>
+        <v>1854.548018077795</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.668047558039</v>
+        <v>1631.047415637212</v>
       </c>
       <c r="U2" t="n">
-        <v>1474.915317992638</v>
+        <v>1375.29468607181</v>
       </c>
       <c r="V2" t="n">
-        <v>1132.808508696156</v>
+        <v>1033.187876775329</v>
       </c>
       <c r="W2" t="n">
-        <v>761.8094736644439</v>
+        <v>662.1888417436162</v>
       </c>
       <c r="X2" t="n">
-        <v>372.3568685975007</v>
+        <v>662.1888417436162</v>
       </c>
       <c r="Y2" t="n">
-        <v>65.14988827665195</v>
+        <v>662.1888417436162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>639.7055669364452</v>
+        <v>601.5954260377486</v>
       </c>
       <c r="C3" t="n">
-        <v>489.0513364965374</v>
+        <v>601.5954260377486</v>
       </c>
       <c r="D3" t="n">
-        <v>358.9623691180177</v>
+        <v>471.5064586592289</v>
       </c>
       <c r="E3" t="n">
-        <v>222.5158782289054</v>
+        <v>335.0599677701166</v>
       </c>
       <c r="F3" t="n">
-        <v>98.08407211203722</v>
+        <v>210.6281616532484</v>
       </c>
       <c r="G3" t="n">
-        <v>43.173502375441</v>
+        <v>90.56834372511287</v>
       </c>
       <c r="H3" t="n">
-        <v>43.173502375441</v>
+        <v>90.56834372511287</v>
       </c>
       <c r="I3" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J3" t="n">
-        <v>156.2884845951684</v>
+        <v>154.2960719567518</v>
       </c>
       <c r="K3" t="n">
-        <v>156.2884845951684</v>
+        <v>474.0352180189783</v>
       </c>
       <c r="L3" t="n">
-        <v>639.8545704934816</v>
+        <v>474.0352180189783</v>
       </c>
       <c r="M3" t="n">
-        <v>639.8545704934816</v>
+        <v>983.6512035146559</v>
       </c>
       <c r="N3" t="n">
-        <v>1002.168375909781</v>
+        <v>1493.267189010333</v>
       </c>
       <c r="O3" t="n">
-        <v>1518.688658500762</v>
+        <v>1653.433118134825</v>
       </c>
       <c r="P3" t="n">
-        <v>1924.31002721716</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2158.67511877205</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R3" t="n">
-        <v>2134.758075670115</v>
+        <v>2035.137443749287</v>
       </c>
       <c r="S3" t="n">
-        <v>1999.827398569983</v>
+        <v>1900.206766649156</v>
       </c>
       <c r="T3" t="n">
-        <v>1822.843586768892</v>
+        <v>1723.222954848064</v>
       </c>
       <c r="U3" t="n">
-        <v>1612.780443447534</v>
+        <v>1513.159811526706</v>
       </c>
       <c r="V3" t="n">
-        <v>1390.240441818601</v>
+        <v>1352.130300919904</v>
       </c>
       <c r="W3" t="n">
-        <v>1160.123195951888</v>
+        <v>1122.013055053191</v>
       </c>
       <c r="X3" t="n">
-        <v>970.8161183018992</v>
+        <v>932.7059774032027</v>
       </c>
       <c r="Y3" t="n">
-        <v>791.5019013774065</v>
+        <v>753.3917604787099</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>524.3866041605078</v>
+        <v>352.3730149753072</v>
       </c>
       <c r="C4" t="n">
-        <v>524.3866041605078</v>
+        <v>352.3730149753072</v>
       </c>
       <c r="D4" t="n">
-        <v>368.7534910630225</v>
+        <v>196.7399018778219</v>
       </c>
       <c r="E4" t="n">
-        <v>368.7534910630225</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.4275562759955</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="G4" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="I4" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J4" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K4" t="n">
-        <v>125.0085434853829</v>
+        <v>123.0161308469663</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1361833591827</v>
+        <v>287.1437707207661</v>
       </c>
       <c r="M4" t="n">
-        <v>475.4277616974467</v>
+        <v>473.4353490590302</v>
       </c>
       <c r="N4" t="n">
-        <v>658.617395728656</v>
+        <v>656.6249830902393</v>
       </c>
       <c r="O4" t="n">
-        <v>821.322162770364</v>
+        <v>819.3297501319473</v>
       </c>
       <c r="P4" t="n">
-        <v>941.1983285469425</v>
+        <v>939.2059159085259</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.6205249169935</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="R4" t="n">
-        <v>944.6205249169935</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="S4" t="n">
-        <v>741.8044410995428</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="T4" t="n">
-        <v>741.8044410995428</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="U4" t="n">
-        <v>741.8044410995428</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="V4" t="n">
-        <v>741.8044410995428</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="W4" t="n">
-        <v>741.8044410995428</v>
+        <v>659.2977102097545</v>
       </c>
       <c r="X4" t="n">
-        <v>741.8044410995428</v>
+        <v>659.2977102097545</v>
       </c>
       <c r="Y4" t="n">
-        <v>524.3866041605078</v>
+        <v>436.1856490263979</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.567813264995</v>
+        <v>751.8608903524193</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.567813264995</v>
+        <v>751.8608903524193</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.567813264995</v>
+        <v>751.8608903524193</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.567813264995</v>
+        <v>751.8608903524193</v>
       </c>
       <c r="F5" t="n">
-        <v>594.673374794973</v>
+        <v>739.0068559228012</v>
       </c>
       <c r="G5" t="n">
-        <v>181.5106192829762</v>
+        <v>325.8441004108043</v>
       </c>
       <c r="H5" t="n">
-        <v>181.5106192829762</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="I5" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J5" t="n">
-        <v>43.173502375441</v>
+        <v>185.8308626458526</v>
       </c>
       <c r="K5" t="n">
-        <v>123.5190900737069</v>
+        <v>544.8132186733144</v>
       </c>
       <c r="L5" t="n">
-        <v>123.5190900737069</v>
+        <v>544.8132186733144</v>
       </c>
       <c r="M5" t="n">
-        <v>657.7911819697894</v>
+        <v>1054.429204168992</v>
       </c>
       <c r="N5" t="n">
-        <v>1185.602465607251</v>
+        <v>1564.045189664669</v>
       </c>
       <c r="O5" t="n">
-        <v>1625.64206649958</v>
+        <v>1564.045189664669</v>
       </c>
       <c r="P5" t="n">
-        <v>1973.829558631102</v>
+        <v>1874.208926710274</v>
       </c>
       <c r="Q5" t="n">
-        <v>2158.67511877205</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R5" t="n">
-        <v>2158.67511877205</v>
+        <v>2021.061573136744</v>
       </c>
       <c r="S5" t="n">
-        <v>2158.67511877205</v>
+        <v>2021.061573136744</v>
       </c>
       <c r="T5" t="n">
-        <v>2158.67511877205</v>
+        <v>1797.560970696161</v>
       </c>
       <c r="U5" t="n">
-        <v>2158.67511877205</v>
+        <v>1541.80824113076</v>
       </c>
       <c r="V5" t="n">
-        <v>2158.67511877205</v>
+        <v>1541.80824113076</v>
       </c>
       <c r="W5" t="n">
-        <v>1797.511127411337</v>
+        <v>1541.80824113076</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.058522344394</v>
+        <v>1152.355636063816</v>
       </c>
       <c r="Y5" t="n">
-        <v>1011.567813264995</v>
+        <v>1152.355636063816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.5394855154719</v>
+        <v>840.5470728770554</v>
       </c>
       <c r="C6" t="n">
-        <v>691.8852550755641</v>
+        <v>689.8928424371476</v>
       </c>
       <c r="D6" t="n">
-        <v>561.7962876970445</v>
+        <v>559.8038750586279</v>
       </c>
       <c r="E6" t="n">
-        <v>425.3497968079322</v>
+        <v>423.3573841695157</v>
       </c>
       <c r="F6" t="n">
-        <v>300.917990691064</v>
+        <v>298.9255780526475</v>
       </c>
       <c r="G6" t="n">
-        <v>180.8581727629285</v>
+        <v>178.865760124512</v>
       </c>
       <c r="H6" t="n">
-        <v>92.56075636352941</v>
+        <v>90.56834372511287</v>
       </c>
       <c r="I6" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J6" t="n">
-        <v>156.2884845951684</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K6" t="n">
-        <v>476.0276306573948</v>
+        <v>360.9202357992509</v>
       </c>
       <c r="L6" t="n">
-        <v>959.5937165557081</v>
+        <v>399.8360555885794</v>
       </c>
       <c r="M6" t="n">
-        <v>1493.865808451791</v>
+        <v>909.452041084257</v>
       </c>
       <c r="N6" t="n">
-        <v>2028.137900347873</v>
+        <v>909.452041084257</v>
       </c>
       <c r="O6" t="n">
-        <v>2158.67511877205</v>
+        <v>1419.068026579934</v>
       </c>
       <c r="P6" t="n">
-        <v>2158.67511877205</v>
+        <v>1824.689395296332</v>
       </c>
       <c r="Q6" t="n">
-        <v>2158.67511877205</v>
+        <v>2059.054486851222</v>
       </c>
       <c r="R6" t="n">
-        <v>2158.67511877205</v>
+        <v>2035.137443749287</v>
       </c>
       <c r="S6" t="n">
-        <v>2158.67511877205</v>
+        <v>1900.206766649156</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.677505347919</v>
+        <v>1723.222954848064</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.61436202656</v>
+        <v>1513.159811526706</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.074360397628</v>
+        <v>1290.619809897773</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.957114530914</v>
+        <v>1171.657624242509</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.650036880926</v>
+        <v>1171.657624242509</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.3358199564333</v>
+        <v>992.3434073180167</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>524.5705455477346</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="C7" t="n">
-        <v>354.3654276137237</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="D7" t="n">
-        <v>198.7323145162385</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="E7" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="F7" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="G7" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="H7" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="I7" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="J7" t="n">
-        <v>43.173502375441</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="K7" t="n">
-        <v>125.0085434853829</v>
+        <v>123.0161308469663</v>
       </c>
       <c r="L7" t="n">
-        <v>289.1361833591827</v>
+        <v>287.1437707207661</v>
       </c>
       <c r="M7" t="n">
-        <v>475.4277616974467</v>
+        <v>473.4353490590302</v>
       </c>
       <c r="N7" t="n">
-        <v>658.617395728656</v>
+        <v>656.6249830902393</v>
       </c>
       <c r="O7" t="n">
-        <v>821.322162770364</v>
+        <v>819.3297501319473</v>
       </c>
       <c r="P7" t="n">
-        <v>941.1983285469425</v>
+        <v>939.2059159085259</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.6205249169935</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="R7" t="n">
-        <v>820.7195355495705</v>
+        <v>942.6281122785769</v>
       </c>
       <c r="S7" t="n">
-        <v>820.7195355495705</v>
+        <v>739.8120284611261</v>
       </c>
       <c r="T7" t="n">
-        <v>820.7195355495705</v>
+        <v>739.8120284611261</v>
       </c>
       <c r="U7" t="n">
-        <v>535.2807437914714</v>
+        <v>739.8120284611261</v>
       </c>
       <c r="V7" t="n">
-        <v>535.2807437914714</v>
+        <v>558.5918140228637</v>
       </c>
       <c r="W7" t="n">
-        <v>535.2807437914714</v>
+        <v>275.2614119540414</v>
       </c>
       <c r="X7" t="n">
-        <v>535.2807437914714</v>
+        <v>41.18108973702445</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.2807437914714</v>
+        <v>41.18108973702445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603.7049414143012</v>
+        <v>924.8850248408685</v>
       </c>
       <c r="C8" t="n">
-        <v>210.5294399172317</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2199.134819303272</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W8" t="n">
-        <v>1790.14300127204</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="X8" t="n">
-        <v>1400.690396205097</v>
+        <v>1721.870479631664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1004.199687125698</v>
+        <v>1325.379770552265</v>
       </c>
     </row>
     <row r="9">
@@ -4890,13 +4890,13 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
+        <v>963.7331842818107</v>
+      </c>
+      <c r="N9" t="n">
         <v>1549.231189288413</v>
       </c>
-      <c r="N9" t="n">
-        <v>2134.729194295015</v>
-      </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.5180880355544</v>
+        <v>177.174714998724</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>177.174714998724</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>859.9184901272292</v>
+        <v>177.174714998724</v>
       </c>
       <c r="X10" t="n">
-        <v>625.8381679102123</v>
+        <v>177.174714998724</v>
       </c>
       <c r="Y10" t="n">
-        <v>402.7261067268557</v>
+        <v>177.174714998724</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1993.523659073204</v>
+        <v>1472.51684536549</v>
       </c>
       <c r="C11" t="n">
-        <v>1667.67080227785</v>
+        <v>1146.663988570137</v>
       </c>
       <c r="D11" t="n">
-        <v>1349.552318196234</v>
+        <v>828.5455044885207</v>
       </c>
       <c r="E11" t="n">
-        <v>1014.291438014495</v>
+        <v>828.5455044885207</v>
       </c>
       <c r="F11" t="n">
-        <v>664.7196442461893</v>
+        <v>478.9737107202149</v>
       </c>
       <c r="G11" t="n">
-        <v>318.8795334359088</v>
+        <v>133.1335999099344</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>133.1335999099344</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3006.765474848543</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.7476505413</v>
       </c>
       <c r="U11" t="n">
-        <v>2930.647989055332</v>
+        <v>2713.317565677615</v>
       </c>
       <c r="V11" t="n">
-        <v>2655.863824460566</v>
+        <v>2438.533401082849</v>
       </c>
       <c r="W11" t="n">
-        <v>2655.863824460566</v>
+        <v>2134.857010752853</v>
       </c>
       <c r="X11" t="n">
-        <v>2655.863824460566</v>
+        <v>2134.857010752853</v>
       </c>
       <c r="Y11" t="n">
-        <v>2326.695760082884</v>
+        <v>1805.688946375171</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301.6493268977079</v>
+        <v>495.2919823820287</v>
       </c>
       <c r="C13" t="n">
-        <v>198.7668536654134</v>
+        <v>495.2919823820287</v>
       </c>
       <c r="D13" t="n">
-        <v>110.4563852696445</v>
+        <v>406.9815139862598</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>406.9815139862598</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>316.9782239009491</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>216.046814702111</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>127.8909083653213</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>98.32830917883018</v>
+        <v>98.32830917883022</v>
       </c>
       <c r="K13" t="n">
-        <v>246.1462743609242</v>
+        <v>246.1462743609243</v>
       </c>
       <c r="L13" t="n">
-        <v>476.2568383068761</v>
+        <v>476.2568383068763</v>
       </c>
       <c r="M13" t="n">
-        <v>728.5313407172923</v>
+        <v>728.5313407172924</v>
       </c>
       <c r="N13" t="n">
-        <v>977.7038988206536</v>
+        <v>977.7038988206539</v>
       </c>
       <c r="O13" t="n">
         <v>1206.391589934514</v>
@@ -5224,25 +5224,25 @@
         <v>1405.077455559741</v>
       </c>
       <c r="S13" t="n">
-        <v>1269.584016444006</v>
+        <v>1269.584016444007</v>
       </c>
       <c r="T13" t="n">
         <v>1101.187609313957</v>
       </c>
       <c r="U13" t="n">
-        <v>883.0714622575742</v>
+        <v>883.0714622575745</v>
       </c>
       <c r="V13" t="n">
-        <v>684.4147617801148</v>
+        <v>883.0714622575745</v>
       </c>
       <c r="W13" t="n">
-        <v>468.4070044130087</v>
+        <v>667.0637048904684</v>
       </c>
       <c r="X13" t="n">
-        <v>301.6493268977079</v>
+        <v>500.3060273751678</v>
       </c>
       <c r="Y13" t="n">
-        <v>301.6493268977079</v>
+        <v>500.3060273751678</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1609.543013684024</v>
+        <v>1642.069506034397</v>
       </c>
       <c r="C14" t="n">
-        <v>1311.308193474143</v>
+        <v>1343.834685824516</v>
       </c>
       <c r="D14" t="n">
-        <v>1020.807745977999</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E14" t="n">
-        <v>713.1649023817323</v>
+        <v>745.6913947321045</v>
       </c>
       <c r="F14" t="n">
-        <v>391.2111451988984</v>
+        <v>423.7376375492704</v>
       </c>
       <c r="G14" t="n">
-        <v>72.98907097408917</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>72.98907097408917</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3054.731945423785</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2926.17202427039</v>
       </c>
       <c r="U14" t="n">
-        <v>3034.383511434015</v>
+        <v>2765.359975992178</v>
       </c>
       <c r="V14" t="n">
-        <v>2787.217383424722</v>
+        <v>2518.193847982885</v>
       </c>
       <c r="W14" t="n">
-        <v>2511.159029680198</v>
+        <v>2242.13549423836</v>
       </c>
       <c r="X14" t="n">
-        <v>2216.647105900443</v>
+        <v>1947.623570458606</v>
       </c>
       <c r="Y14" t="n">
-        <v>1915.097078108233</v>
+        <v>1947.623570458606</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311668</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798492</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592137</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5689,10 +5689,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M21" t="n">
-        <v>689.8907773307967</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N21" t="n">
-        <v>1345.668748541356</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6029,10 +6029,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N25" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O25" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6203,25 +6203,25 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,31 +6233,31 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118093</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2546.304425485128</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377457</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238552</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379501</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875813</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476735</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691539</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,46 +6294,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350377</v>
+        <v>211.0495293350378</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672777</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>985.0370485667557</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777315</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.78335082125</v>
+        <v>2367.783350821251</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.852673721119</v>
+        <v>2232.85267372112</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920027</v>
+        <v>2055.868861920028</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103023</v>
+        <v>1393.148471103024</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528542</v>
+        <v>1024.527176528543</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904108</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6446,49 +6446,49 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3042.158533375468</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452357</v>
@@ -6500,10 +6500,10 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,19 +6534,19 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
         <v>579.4156798503576</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.662310027837</v>
+        <v>1736.110061724295</v>
       </c>
       <c r="C32" t="n">
-        <v>1498.949751056558</v>
+        <v>1457.906050705176</v>
       </c>
       <c r="D32" t="n">
-        <v>1221.971564799016</v>
+        <v>1187.436412399795</v>
       </c>
       <c r="E32" t="n">
-        <v>927.8509824413502</v>
+        <v>899.8243779942907</v>
       </c>
       <c r="F32" t="n">
-        <v>619.4194864971182</v>
+        <v>597.9014300022194</v>
       </c>
       <c r="G32" t="n">
-        <v>314.7196735109117</v>
+        <v>299.7101649681736</v>
       </c>
       <c r="H32" t="n">
-        <v>99.09956560319262</v>
+        <v>90.59860501261531</v>
       </c>
       <c r="I32" t="n">
-        <v>69.22539122144765</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="J32" t="n">
-        <v>280.4053413025289</v>
+        <v>211.8827514918592</v>
       </c>
       <c r="K32" t="n">
-        <v>745.6922272995178</v>
+        <v>570.8651075193211</v>
       </c>
       <c r="L32" t="n">
-        <v>1239.012519018047</v>
+        <v>1064.18539923785</v>
       </c>
       <c r="M32" t="n">
-        <v>1785.013419062627</v>
+        <v>1722.86985709987</v>
       </c>
       <c r="N32" t="n">
-        <v>2312.824702700089</v>
+        <v>2363.364698554772</v>
       </c>
       <c r="O32" t="n">
-        <v>2752.864303592418</v>
+        <v>2828.615876879084</v>
       </c>
       <c r="P32" t="n">
-        <v>3207.356325693467</v>
+        <v>3176.803369010606</v>
       </c>
       <c r="Q32" t="n">
-        <v>3392.201885834415</v>
+        <v>3361.648929151555</v>
       </c>
       <c r="R32" t="n">
-        <v>3461.269561072383</v>
+        <v>3361.648929151555</v>
       </c>
       <c r="S32" t="n">
-        <v>3403.218948539224</v>
+        <v>3310.106864570555</v>
       </c>
       <c r="T32" t="n">
-        <v>3288.181288624431</v>
+        <v>3201.577752607923</v>
       </c>
       <c r="U32" t="n">
-        <v>3140.89150158482</v>
+        <v>3060.796513520473</v>
       </c>
       <c r="V32" t="n">
-        <v>2907.247634814128</v>
+        <v>2833.661194701943</v>
       </c>
       <c r="W32" t="n">
-        <v>2644.711542308205</v>
+        <v>2577.633650148181</v>
       </c>
       <c r="X32" t="n">
-        <v>2363.721879767053</v>
+        <v>2303.152535559188</v>
       </c>
       <c r="Y32" t="n">
-        <v>2075.694113213444</v>
+        <v>2021.633316957741</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.5913743614785</v>
+        <v>866.5989617230621</v>
       </c>
       <c r="C33" t="n">
-        <v>717.9371439215707</v>
+        <v>715.9447312831543</v>
       </c>
       <c r="D33" t="n">
-        <v>587.8481765430511</v>
+        <v>585.8557639046346</v>
       </c>
       <c r="E33" t="n">
-        <v>451.4016856539388</v>
+        <v>449.4092730155223</v>
       </c>
       <c r="F33" t="n">
-        <v>326.9698795370707</v>
+        <v>324.9774668986541</v>
       </c>
       <c r="G33" t="n">
-        <v>206.9100616089351</v>
+        <v>204.9176489705186</v>
       </c>
       <c r="H33" t="n">
-        <v>118.6126452095361</v>
+        <v>116.6202325711195</v>
       </c>
       <c r="I33" t="n">
-        <v>69.22539122144765</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="J33" t="n">
-        <v>69.22539122144765</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="K33" t="n">
-        <v>69.22539122144765</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="L33" t="n">
-        <v>69.22539122144765</v>
+        <v>550.7990644813443</v>
       </c>
       <c r="M33" t="n">
-        <v>575.2762121242553</v>
+        <v>573.2837994858386</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.054183334814</v>
+        <v>1229.061770696398</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.574465925795</v>
+        <v>1745.582053287379</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.195834642193</v>
+        <v>2151.203422003776</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.560926197084</v>
+        <v>2385.568513558667</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.643883095148</v>
+        <v>2361.651470456731</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.713205995017</v>
+        <v>2226.7207933566</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.729394193925</v>
+        <v>2049.736981555508</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.666250872567</v>
+        <v>1839.67383823415</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.126249243634</v>
+        <v>1617.133836605218</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.009003376921</v>
+        <v>1387.016590738504</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.701925726933</v>
+        <v>1197.709513088516</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.38770880244</v>
+        <v>1018.395296164023</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>405.5348018022193</v>
+        <v>357.9825534986775</v>
       </c>
       <c r="C34" t="n">
-        <v>343.7926263939987</v>
+        <v>302.7489260426177</v>
       </c>
       <c r="D34" t="n">
-        <v>296.6224558223037</v>
+        <v>262.0873034230834</v>
       </c>
       <c r="E34" t="n">
-        <v>249.5265862072964</v>
+        <v>221.4999817602369</v>
       </c>
       <c r="F34" t="n">
-        <v>200.6635939460596</v>
+        <v>179.1455374511608</v>
       </c>
       <c r="G34" t="n">
-        <v>140.8724825712953</v>
+        <v>125.8629740285573</v>
       </c>
       <c r="H34" t="n">
-        <v>93.85687405857955</v>
+        <v>85.35591346800224</v>
       </c>
       <c r="I34" t="n">
-        <v>69.22539122144765</v>
+        <v>67.2329785830311</v>
       </c>
       <c r="J34" t="n">
-        <v>145.7561785935372</v>
+        <v>150.1427938030333</v>
       </c>
       <c r="K34" t="n">
-        <v>333.895749673006</v>
+        <v>317.8451082450405</v>
       </c>
       <c r="L34" t="n">
-        <v>604.3279195163327</v>
+        <v>594.6563059362801</v>
       </c>
       <c r="M34" t="n">
-        <v>790.6194978545967</v>
+        <v>780.9478842745441</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.645726026655</v>
+        <v>964.1375183057532</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.350493068363</v>
+        <v>1126.842285347461</v>
       </c>
       <c r="P34" t="n">
-        <v>1359.226658844941</v>
+        <v>1359.40200894148</v>
       </c>
       <c r="Q34" t="n">
-        <v>1468.953385184519</v>
+        <v>1362.82420531153</v>
       </c>
       <c r="R34" t="n">
-        <v>1453.515338342886</v>
+        <v>1353.894706422058</v>
       </c>
       <c r="S34" t="n">
-        <v>1359.162197051226</v>
+        <v>1266.050113082559</v>
       </c>
       <c r="T34" t="n">
-        <v>1231.90608774525</v>
+        <v>1145.302551728744</v>
       </c>
       <c r="U34" t="n">
-        <v>1054.930238512941</v>
+        <v>974.8352504485957</v>
       </c>
       <c r="V34" t="n">
-        <v>897.4138358595557</v>
+        <v>823.8273957473709</v>
       </c>
       <c r="W34" t="n">
-        <v>722.5463763165235</v>
+        <v>655.4684841564995</v>
       </c>
       <c r="X34" t="n">
-        <v>596.9289966252968</v>
+        <v>536.3596524174335</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.2798779677304</v>
+        <v>428.2190817120278</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,49 +7096,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7193,10 +7193,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,49 +7570,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655144</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072225</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838011</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1807.385743512481</v>
+        <v>1455.570049692414</v>
       </c>
       <c r="C44" t="n">
-        <v>1518.268942112348</v>
+        <v>1166.453248292281</v>
       </c>
       <c r="D44" t="n">
-        <v>1236.886513425952</v>
+        <v>885.0708196058854</v>
       </c>
       <c r="E44" t="n">
-        <v>938.3616886394334</v>
+        <v>586.5459948193661</v>
       </c>
       <c r="F44" t="n">
-        <v>625.5259502663476</v>
+        <v>273.7102564462805</v>
       </c>
       <c r="G44" t="n">
-        <v>316.4218948512872</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>96.39754451471427</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3043.501530243763</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2924.059627900117</v>
+        <v>2986.51448286213</v>
       </c>
       <c r="U44" t="n">
-        <v>2924.059627900117</v>
+        <v>2834.820453393665</v>
       </c>
       <c r="V44" t="n">
-        <v>2924.059627900117</v>
+        <v>2596.77234419412</v>
       </c>
       <c r="W44" t="n">
-        <v>2657.11929296534</v>
+        <v>2329.832009259344</v>
       </c>
       <c r="X44" t="n">
-        <v>2396.253798109404</v>
+        <v>2044.438104289337</v>
       </c>
       <c r="Y44" t="n">
-        <v>2103.821789126942</v>
+        <v>1752.006095306875</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7728,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>429.2582352868637</v>
+        <v>429.2582352868636</v>
       </c>
       <c r="C46" t="n">
-        <v>363.1118174497893</v>
+        <v>363.1118174497892</v>
       </c>
       <c r="D46" t="n">
-        <v>311.5374044492405</v>
+        <v>311.5374044492404</v>
       </c>
       <c r="E46" t="n">
         <v>260.0372924053794</v>
@@ -7798,25 +7798,25 @@
         <v>142.5747039116708</v>
       </c>
       <c r="H46" t="n">
-        <v>91.1548529701012</v>
+        <v>91.15485297010119</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>120.9283181622579</v>
       </c>
       <c r="K46" t="n">
-        <v>202.7633592721997</v>
+        <v>304.7512912372071</v>
       </c>
       <c r="L46" t="n">
-        <v>468.8789311110069</v>
+        <v>570.8668630760143</v>
       </c>
       <c r="M46" t="n">
-        <v>655.1705094492709</v>
+        <v>859.1463733792857</v>
       </c>
       <c r="N46" t="n">
-        <v>940.3480754454874</v>
+        <v>1042.336007410495</v>
       </c>
       <c r="O46" t="n">
         <v>1205.040774452203</v>
@@ -7840,16 +7840,16 @@
         <v>1100.674884141854</v>
       </c>
       <c r="V46" t="n">
-        <v>938.7542390596151</v>
+        <v>938.754239059615</v>
       </c>
       <c r="W46" t="n">
-        <v>759.4825370877292</v>
+        <v>759.482537087729</v>
       </c>
       <c r="X46" t="n">
-        <v>629.4609149676487</v>
+        <v>629.4609149676486</v>
       </c>
       <c r="Y46" t="n">
-        <v>510.4075538812285</v>
+        <v>510.4075538812284</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>689.3938312907399</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>663.8821130505897</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>271.5725060815388</v>
+        <v>368.3975714633508</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>607.1507437621175</v>
       </c>
       <c r="N3" t="n">
-        <v>451.3456536787116</v>
+        <v>600.1357345669722</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>254.4713256813047</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>224.2155624704151</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>689.3938312907399</v>
+        <v>664.4886733105329</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>663.8821130505897</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>463.5981513273945</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>129.3692557350278</v>
       </c>
       <c r="M6" t="n">
-        <v>632.0559017423244</v>
+        <v>607.1507437621175</v>
       </c>
       <c r="N6" t="n">
-        <v>625.0408925471792</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5433350749264</v>
+        <v>607.4511806016945</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>318.4970894367924</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>149.8974233269835</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,16 +8538,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>507.6329599720908</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>723.5863546247126</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,7 +9480,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
@@ -9492,13 +9492,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4748860273814</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>90.06034685691823</v>
@@ -9726,10 +9726,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>576.0417294606772</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9969,7 +9969,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>166.3231752016892</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10431,10 +10431,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056832</v>
+        <v>115.0989755892051</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10671,10 +10671,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,22 +10899,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>551.1687275349758</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,19 +11376,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210921</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>331.9082713799217</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>254.192801674475</v>
       </c>
       <c r="I11" t="n">
-        <v>70.30432748376069</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.19900125366081</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>154.6161781614784</v>
+        <v>50.64853209730707</v>
       </c>
       <c r="U11" t="n">
-        <v>12.99047182610818</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>300.6396264266963</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>318.9086607615746</v>
+        <v>318.9086607615745</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.7065202496891</v>
+        <v>111.7426157064814</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.8536484999715</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.49992077481673</v>
+        <v>87.35380576469034</v>
       </c>
       <c r="F13" t="n">
-        <v>89.10325718445765</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>99.92209510684978</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>87.27434727342182</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>65.11406285459375</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>196.6701334726848</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>32.20122742686945</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.1449496498732</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>96.53779740616649</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>217.8241068332072</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.93563264249273</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25913,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>61.83030641239286</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>150.1770891737803</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6676281075497</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>24.28312601292998</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613873.5261637623</v>
+        <v>613873.5261637624</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>660956.8784646289</v>
+        <v>660956.8784646291</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559029.7520894061</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="C2" t="n">
-        <v>559029.7520894057</v>
+        <v>559029.7520894059</v>
       </c>
       <c r="D2" t="n">
         <v>559029.7520894061</v>
@@ -26326,34 +26326,34 @@
         <v>525375.9803180383</v>
       </c>
       <c r="G2" t="n">
+        <v>559029.7520894062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>559029.7520894067</v>
+      </c>
+      <c r="I2" t="n">
+        <v>559029.7520894065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>559029.7520894068</v>
+      </c>
+      <c r="K2" t="n">
+        <v>559029.7520894069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>559029.7520894065</v>
+      </c>
+      <c r="M2" t="n">
         <v>559029.7520894064</v>
       </c>
-      <c r="H2" t="n">
-        <v>559029.7520894061</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
         <v>559029.7520894062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>559029.7520894069</v>
-      </c>
-      <c r="K2" t="n">
-        <v>559029.7520894071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>559029.7520894057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>559029.7520894065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>559029.7520894069</v>
       </c>
       <c r="O2" t="n">
         <v>559029.7520894064</v>
       </c>
       <c r="P2" t="n">
-        <v>533728.965436583</v>
+        <v>533728.9654365828</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180855.4204570614</v>
+        <v>172509.1291992606</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16073.03574699064</v>
+        <v>23809.32497038232</v>
       </c>
       <c r="E3" t="n">
         <v>108579.4461620183</v>
       </c>
       <c r="F3" t="n">
-        <v>21873.48497569386</v>
+        <v>21873.48497569382</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>202205.403242959</v>
+        <v>195689.1180883858</v>
       </c>
       <c r="K3" t="n">
-        <v>21873.48497569385</v>
+        <v>21873.4849756937</v>
       </c>
       <c r="L3" t="n">
-        <v>39804.58677398702</v>
+        <v>44959.35675209837</v>
       </c>
       <c r="M3" t="n">
-        <v>42370.88004226788</v>
+        <v>43422.57505345605</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>24224.57873074498</v>
+        <v>24224.57873074493</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168291.4075514615</v>
+        <v>175003.5818276847</v>
       </c>
       <c r="C4" t="n">
-        <v>168291.4075514615</v>
+        <v>175003.5818276848</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>69608.89548956073</v>
+        <v>69608.89548956076</v>
       </c>
       <c r="F4" t="n">
         <v>97239.09137183768</v>
@@ -26442,19 +26442,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
-        <v>122593.9044797028</v>
+        <v>122593.9044797027</v>
       </c>
       <c r="L4" t="n">
-        <v>122316.7617491402</v>
+        <v>122183.3671400855</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
+        <v>121843.4120153197</v>
+      </c>
+      <c r="O4" t="n">
         <v>121843.4120153196</v>
-      </c>
-      <c r="O4" t="n">
-        <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
         <v>103345.3691300008</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66439.46180533516</v>
+        <v>64925.22820013858</v>
       </c>
       <c r="C5" t="n">
-        <v>66439.46180533516</v>
+        <v>64925.22820013858</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>52813.68699838209</v>
+        <v>52813.6869983821</v>
       </c>
       <c r="F5" t="n">
         <v>55112.2895089091</v>
@@ -26488,22 +26488,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.04525391952</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61638.48473234886</v>
+        <v>60665.94657376457</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143443.4622755481</v>
+        <v>146591.8128623221</v>
       </c>
       <c r="C6" t="n">
-        <v>324298.8827326091</v>
+        <v>319100.9420615826</v>
       </c>
       <c r="D6" t="n">
-        <v>319025.1699948381</v>
+        <v>311288.8807714464</v>
       </c>
       <c r="E6" t="n">
-        <v>256948.7229161065</v>
+        <v>256719.4358176441</v>
       </c>
       <c r="F6" t="n">
-        <v>351151.1144615976</v>
+        <v>351042.5539074964</v>
       </c>
       <c r="G6" t="n">
-        <v>349921.6148855527</v>
+        <v>349921.6148855525</v>
       </c>
       <c r="H6" t="n">
-        <v>379016.5707585668</v>
+        <v>379016.5707585674</v>
       </c>
       <c r="I6" t="n">
-        <v>379016.5707585669</v>
+        <v>379016.5707585671</v>
       </c>
       <c r="J6" t="n">
-        <v>170571.3991128257</v>
+        <v>177087.6842673986</v>
       </c>
       <c r="K6" t="n">
         <v>350903.3173800909</v>
       </c>
       <c r="L6" t="n">
-        <v>335269.9188339295</v>
+        <v>331221.0816234581</v>
       </c>
       <c r="M6" t="n">
-        <v>336645.6907162993</v>
+        <v>335593.995705111</v>
       </c>
       <c r="N6" t="n">
-        <v>379016.5707585677</v>
+        <v>379016.5707585669</v>
       </c>
       <c r="O6" t="n">
-        <v>354791.992027822</v>
+        <v>354791.9920278222</v>
       </c>
       <c r="P6" t="n">
-        <v>374512.4295015896</v>
+        <v>374430.8140607738</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.6687796930125</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="C4" t="n">
-        <v>539.6687796930125</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,22 +26808,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443785</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>865.3173902680957</v>
+        <v>840.4122322878886</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F2" t="n">
-        <v>27.34185621961733</v>
+        <v>27.34185621961727</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>30.28072341343122</v>
       </c>
       <c r="K2" t="n">
-        <v>27.34185621961731</v>
+        <v>27.34185621961727</v>
       </c>
       <c r="L2" t="n">
-        <v>49.75573346748378</v>
+        <v>56.19919594012296</v>
       </c>
       <c r="M2" t="n">
-        <v>22.98165621505207</v>
+        <v>16.5381937424129</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>30.28072341343122</v>
+        <v>30.28072341343116</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.6687796930125</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>51.74334657628253</v>
+        <v>76.64850455648946</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.2404202359465</v>
+        <v>655.3352622557401</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>96.24867606549742</v>
+        <v>121.1538340457045</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="K2" t="n">
-        <v>27.34185621961733</v>
+        <v>27.34185621961727</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>30.28072341343122</v>
       </c>
       <c r="P2" t="n">
-        <v>27.34185621961731</v>
+        <v>27.34185621961727</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>539.6687796930125</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>51.74334657628253</v>
+        <v>76.64850455648946</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,7 +27385,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>263.312602857928</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.39089147096468</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64.49775570962396</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>60.89538611190969</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>100.3814307938085</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.63728200187839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>39.02583936213222</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>9.736693234289817</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>43.54633639319044</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>110.0435096093349</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7528422430888</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>83.91153943350417</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.7590344201666</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>340.0987772984768</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>3.200353661084335</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>192.544010557426</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="C11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="D11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="E11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="G11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="H11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="I11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="T11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="U11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="V11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="W11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="X11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="C13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="D13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="E13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="F13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="G13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="H13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="I13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="J13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="K13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="L13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="M13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="N13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="O13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="P13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="R13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="S13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="T13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="U13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="V13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="W13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="X13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.64941825469913</v>
+        <v>66.64941825469917</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668753</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.0125002648524</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>30.27223765901363</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,16 +29533,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
+        <v>86.65052755599493</v>
+      </c>
+      <c r="M29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="D32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="E32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="F32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="G32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="H32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="I32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="J32" t="n">
-        <v>67.20219916389212</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>107.3783131005323</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>25.4662398302861</v>
       </c>
       <c r="P32" t="n">
-        <v>107.3783131005323</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>107.3783131005323</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="T32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="U32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="V32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="W32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="X32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="Y32" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="C34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="D34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="E34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="F34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="G34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="H34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="I34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="K34" t="n">
-        <v>107.3783131005323</v>
+        <v>86.73461952733871</v>
       </c>
       <c r="L34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>103.875347617019</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3783131005323</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="S34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="T34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="U34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="V34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="W34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="X34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.3783131005323</v>
+        <v>113.8217755731715</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30405,28 +30405,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,25 +30642,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.636002634529262</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30876,22 +30876,22 @@
         <v>103.0181130959671</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>89.47771015715132</v>
       </c>
       <c r="K46" t="n">
-        <v>59.40322268499222</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="L46" t="n">
         <v>103.0181130959671</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>103.0181130959671</v>
       </c>
       <c r="N46" t="n">
-        <v>103.0181130959671</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>103.0181130959671</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>103.0181130959671</v>
@@ -31777,7 +31777,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -33907,7 +33907,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>539.6687796930125</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>121.2710588406136</v>
+        <v>218.0961242224256</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="N3" t="n">
-        <v>365.973540824545</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>161.7837667924158</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>81.15715929117771</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>539.6687796930125</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>313.2967040864693</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>39.30890887810961</v>
       </c>
       <c r="M6" t="n">
-        <v>539.6687796930125</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="N6" t="n">
-        <v>539.6687796930125</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>131.8557761860375</v>
+        <v>514.7636217128056</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>168.1956421958672</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>5.39872490859134</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,16 +35258,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.57493078254006</v>
+        <v>36.5749307825401</v>
       </c>
       <c r="K13" t="n">
-        <v>149.3110759415091</v>
+        <v>149.3110759415092</v>
       </c>
       <c r="L13" t="n">
-        <v>232.4349130767191</v>
+        <v>232.4349130767192</v>
       </c>
       <c r="M13" t="n">
         <v>254.8227297074911</v>
       </c>
       <c r="N13" t="n">
-        <v>251.6894526296579</v>
+        <v>251.689452629658</v>
       </c>
       <c r="O13" t="n">
         <v>230.997667791778</v>
@@ -35586,7 +35586,7 @@
         <v>187.7364543926573</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.10618226485161</v>
+        <v>70.10618226485165</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>631.1992325754007</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,13 +36212,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7873271384925</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O23" t="n">
         <v>444.4844453457863</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.46926427500488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101051</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>483.6546074113652</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36689,7 +36689,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242059</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>73.9360531523773</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>213.3130808899811</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>469.9867535323119</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>665.3378362242629</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>646.9644863180825</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>469.9506851760724</v>
       </c>
       <c r="P32" t="n">
-        <v>459.08285060712</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>69.76532852319903</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563713</v>
+        <v>22.7118535398932</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.30382562837323</v>
+        <v>83.74728810101237</v>
       </c>
       <c r="K34" t="n">
-        <v>190.0399707873423</v>
+        <v>169.3962772141487</v>
       </c>
       <c r="L34" t="n">
-        <v>273.1638079225523</v>
+        <v>279.6072703951914</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>288.9153819919778</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>234.9088117111296</v>
       </c>
       <c r="Q34" t="n">
-        <v>110.8350771106848</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133946</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37555,7 +37555,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457873</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094881</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37956,7 +37956,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220321</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>59.40322268499225</v>
       </c>
       <c r="K46" t="n">
-        <v>142.0648803718022</v>
+        <v>185.679770782777</v>
       </c>
       <c r="L46" t="n">
         <v>268.8036079179871</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>291.191424548759</v>
       </c>
       <c r="N46" t="n">
-        <v>288.0581474709259</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>267.3663626330459</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>224.1051492339252</v>
+        <v>224.1051492339253</v>
       </c>
       <c r="Q46" t="n">
-        <v>106.4748771061195</v>
+        <v>106.4748771061196</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
